--- a/src/tetsdata/testing git.xlsx
+++ b/src/tetsdata/testing git.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEC2B1E-FF0B-4D68-A533-888DA249E6F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4D156693-5E39-454F-B475-DFF562A6EF9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17475" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
     <t>ssss</t>
   </si>
   <si>
-    <t>kurnool</t>
+    <t>hydrbad</t>
   </si>
 </sst>
 </file>
@@ -355,7 +356,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
